--- a/biology/Médecine/1536_en_santé_et_médecine/1536_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1536_en_santé_et_médecine/1536_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1536_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1536_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1536 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1536_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1536_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>17 janvier : un bref de Paul III autorise François Rabelais à regagner un monastère bénédictin de son choix et à exercer la médecine, à condition de ne pas pratiquer d'opérations chirurgicales et de faire pénitence devant un confesseur à sa convenance[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>17 janvier : un bref de Paul III autorise François Rabelais à regagner un monastère bénédictin de son choix et à exercer la médecine, à condition de ne pas pratiquer d'opérations chirurgicales et de faire pénitence devant un confesseur à sa convenance.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1536_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1536_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,10 +555,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Création de l'hôpital général de Genève, qui devient « et ce, pour trois siècles, la seule institution d'assistance de la ville[2] ».
-Première mention d'un médecin à la « maison d'hospitalité » de Dinan qui est à l'origine de l'hôpital général de la ville[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Création de l'hôpital général de Genève, qui devient « et ce, pour trois siècles, la seule institution d'assistance de la ville ».
+Première mention d'un médecin à la « maison d'hospitalité » de Dinan qui est à l'origine de l'hôpital général de la ville.</t>
         </is>
       </c>
     </row>
@@ -554,7 +570,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1536_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1536_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -572,9 +588,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1530-1536 : parution de l'Herbarum vivae eicones, du théologien et naturaliste allemand Otto Brunfels (1488-1534), herbier médicinal illustré par Hans Weiditz (en), probablement élève de Dürer[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1530-1536 : parution de l'Herbarum vivae eicones, du théologien et naturaliste allemand Otto Brunfels (1488-1534), herbier médicinal illustré par Hans Weiditz (en), probablement élève de Dürer.</t>
         </is>
       </c>
     </row>
@@ -584,7 +602,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1536_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1536_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -602,10 +620,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Henri de Monantheuil (mort en 1606), mathématicien et médecin français, régent de la faculté de médecine de Paris, puis, à partir de 1574, professeur de mathématiques au Collège royal[5].
-Félix Platter (mort en 1614), médecin, anatomiste et botaniste suisse, fils de l'humaniste Thomas Platter le Vieux, et demi-frère de Thomas Platter le Jeune (1574-1628), botaniste et médecin[6],[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Henri de Monantheuil (mort en 1606), mathématicien et médecin français, régent de la faculté de médecine de Paris, puis, à partir de 1574, professeur de mathématiques au Collège royal.
+Félix Platter (mort en 1614), médecin, anatomiste et botaniste suisse, fils de l'humaniste Thomas Platter le Vieux, et demi-frère de Thomas Platter le Jeune (1574-1628), botaniste et médecin,.</t>
         </is>
       </c>
     </row>
@@ -615,7 +635,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1536_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1536_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -633,9 +653,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>24 mars : Giovanni Manardo[8] (né en 1462), médecin, botaniste et humaniste italien, élève de Nicolas Léonicène à Ferrare, Premier médecin du roi de Hongrie Ladislas VI[9], auteur de « Lettres médicales » (Epistolarium medicinalium libri duodeviginti) dont Rabelais éditera le second tome en 1532[10].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>24 mars : Giovanni Manardo (né en 1462), médecin, botaniste et humaniste italien, élève de Nicolas Léonicène à Ferrare, Premier médecin du roi de Hongrie Ladislas VI, auteur de « Lettres médicales » (Epistolarium medicinalium libri duodeviginti) dont Rabelais éditera le second tome en 1532.</t>
         </is>
       </c>
     </row>
@@ -645,7 +667,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1536_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1536_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,6 +686,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
